--- a/周报模版.xlsx
+++ b/周报模版.xlsx
@@ -4,22 +4,25 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="周报" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="工作周报" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
-  <si>
-    <t>姓名 YYYY年MM月DD日-DD日工作周报</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+  <si>
+    <t>陈毅 2025年9月28日-10月11日工作周报</t>
+  </si>
+  <si>
+    <t>一、重点任务跟进项（每周更新）:</t>
   </si>
   <si>
     <t>序号</t>
   </si>
   <si>
-    <t>重点需求或任务</t>
+    <t>重点需求/任务</t>
   </si>
   <si>
     <t>事项说明</t>
@@ -34,13 +37,22 @@
     <t>负责人</t>
   </si>
   <si>
-    <t>协同人或部门</t>
+    <t>协同人/部门</t>
   </si>
   <si>
     <t>完成进度</t>
   </si>
   <si>
     <t>备注</t>
+  </si>
+  <si>
+    <t>2、周报提交以自然周(即周一至周日)为周期,如当周工作日≤2天,则顺延至下周提交。</t>
+  </si>
+  <si>
+    <t>二、日常工作遇到的问题</t>
+  </si>
+  <si>
+    <t>（问题可以是个人工作中遇见的问题、和其他人协作的问题、系统潜在风险等）</t>
   </si>
   <si>
     <t>问题分类</t>
@@ -62,7 +74,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
@@ -72,13 +84,25 @@
     </font>
     <font>
       <b/>
+      <color rgb="FF000000"/>
       <sz val="16"/>
     </font>
     <font>
       <b/>
+      <color rgb="FFFF0000"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -87,7 +111,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE0E0E0"/>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66CC00"/>
       </patternFill>
     </fill>
   </fills>
@@ -100,29 +129,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -466,22 +509,20 @@
   <dimension ref="A1:I19"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="35" customWidth="1"/>
-    <col min="4" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="4" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
     <col min="9" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="25" customHeight="1" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -489,34 +530,46 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" ht="20" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -563,75 +616,63 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" ht="20" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" ht="20" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" ht="20" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" ht="25" customHeight="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="3" t="s">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="12" ht="20" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" ht="20" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" ht="25" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
+      <c r="C14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -674,8 +715,12 @@
       <c r="F19" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
+  <mergeCells count="5">
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A13:I13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
